--- a/trunk/2014/Helferfeier/Liste aller Helfer der letzten Veranstaltungen.xlsx
+++ b/trunk/2014/Helferfeier/Liste aller Helfer der letzten Veranstaltungen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>Fest</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>Liste aller Helfer bei den letzten Veranstaltungen</t>
+  </si>
+  <si>
+    <t>Vanessa Sorg</t>
+  </si>
+  <si>
+    <t>Martina Zeitlhofer</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,63 +1263,63 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>13</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
@@ -1321,63 +1327,63 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>46</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>44</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1385,7 +1391,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
@@ -1393,103 +1399,103 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>26</v>
       </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>18</v>
-      </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>25</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>19</v>
       </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>38</v>
-      </c>
-      <c r="B93" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="B95" t="s">
         <v>82</v>
@@ -1497,71 +1503,84 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>17</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -1569,38 +1588,35 @@
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-    </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="6"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
@@ -1609,7 +1625,7 @@
       <c r="A136" s="4"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
+      <c r="A137" s="4"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
@@ -1621,16 +1637,16 @@
       <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
+      <c r="A141" s="5"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
+      <c r="A142" s="4"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
+      <c r="A144" s="5"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
@@ -1646,6 +1662,12 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A1:A133">

--- a/trunk/2014/Helferfeier/Liste aller Helfer der letzten Veranstaltungen.xlsx
+++ b/trunk/2014/Helferfeier/Liste aller Helfer der letzten Veranstaltungen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
   <si>
     <t>Fest</t>
   </si>
@@ -346,13 +346,19 @@
   </si>
   <si>
     <t>Martina Zeitlhofer</t>
+  </si>
+  <si>
+    <t>Mayrhofer Josef</t>
+  </si>
+  <si>
+    <t>Manninger Markus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -495,7 +501,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -530,7 +535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -706,25 +710,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21">
       <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -732,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -740,7 +744,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -751,7 +755,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>88</v>
       </c>
@@ -762,7 +766,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
@@ -773,7 +777,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -784,7 +788,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -795,7 +799,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -817,7 +821,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -828,7 +832,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -839,7 +843,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -850,7 +854,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -861,7 +865,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -869,7 +873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -877,7 +881,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -885,7 +889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -893,7 +897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -901,7 +905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
@@ -909,7 +913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -917,7 +921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -925,7 +929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
@@ -933,7 +937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -941,7 +945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
@@ -949,7 +953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -957,7 +961,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -965,7 +969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -973,7 +977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -981,7 +985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -989,7 +993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>71</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>74</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>78</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>40</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
         <v>34</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
         <v>43</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>64</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>67</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>65</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>85</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
         <v>57</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>75</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
         <v>81</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
         <v>108</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
         <v>54</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -1525,149 +1529,165 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
+      <c r="A117" s="6"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" s="4"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A1:A133">
@@ -1679,24 +1699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
